--- a/базовые операции.xlsx
+++ b/базовые операции.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Главный" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ФИО</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>ГОД</t>
+  </si>
+  <si>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>ВСЕГО</t>
+  </si>
+  <si>
+    <t>Мужчин</t>
+  </si>
+  <si>
+    <t>Женщин</t>
   </si>
 </sst>
 </file>
@@ -166,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -178,6 +202,13 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -462,10 +493,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +504,7 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -481,7 +513,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">TODAY()</f>
-        <v>44457</v>
+        <v>44464</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -497,9 +529,15 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
@@ -519,9 +557,16 @@
         <f>B3-C3</f>
         <v>17400</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="10">
+        <v>1979</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">$B$10-E3</f>
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="7">
         <v>13</v>
       </c>
@@ -541,9 +586,16 @@
         <f t="shared" ref="D4:D7" si="1">B4-C4</f>
         <v>13050</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="10">
+        <v>1982</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F7" ca="1" si="2">$B$10-E4</f>
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -560,9 +612,16 @@
         <f t="shared" si="1"/>
         <v>15225</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="10">
+        <v>1985</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -579,9 +638,16 @@
         <f t="shared" si="1"/>
         <v>26100</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="10">
+        <v>1984</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -598,9 +664,16 @@
         <f t="shared" si="1"/>
         <v>23490</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="10">
+        <v>1990</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -611,12 +684,22 @@
         <v>109500</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" ref="C8:D8" si="2">SUM(C3:C7)</f>
+        <f t="shared" ref="C8:D8" si="3">SUM(C3:C7)</f>
         <v>14235</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95265</v>
+      </c>
+      <c r="F8" s="11">
+        <f ca="1">AVERAGE(F3:F7)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="11">
+        <f ca="1">MAX(F3:F7)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -627,6 +710,10 @@
         <f ca="1">YEAR(B1)</f>
         <v>2021</v>
       </c>
+      <c r="F10">
+        <f ca="1">MIN(F3:F7)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -635,6 +722,42 @@
       <c r="B11">
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <f>COUNT(E3:E7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(G3:G7,"м")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(G3:G7, "ж")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f>B13-B14</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/базовые операции.xlsx
+++ b/базовые операции.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Главный" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">TODAY()</f>
-        <v>44464</v>
+        <v>44485</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
